--- a/data/trans_orig/IP16B03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16B03-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9E5E2EE-5E62-4B80-9D35-539A15CCAC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69EC9D8E-A631-4616-8DB9-0DDC0FAE8A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8FC50DD3-039D-405F-8397-5A3F84013DB5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8A36A589-3060-4824-B87C-DA42BA95B5F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -106,7 +106,7 @@
     <t>86,47%</t>
   </si>
   <si>
-    <t>46,83%</t>
+    <t>47,54%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -115,13 +115,13 @@
     <t>92,88%</t>
   </si>
   <si>
-    <t>64,14%</t>
+    <t>70,35%</t>
   </si>
   <si>
     <t>13,53%</t>
   </si>
   <si>
-    <t>53,17%</t>
+    <t>52,46%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -130,7 +130,7 @@
     <t>7,12%</t>
   </si>
   <si>
-    <t>35,86%</t>
+    <t>29,65%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -145,7 +145,7 @@
     <t>92,43%</t>
   </si>
   <si>
-    <t>63,35%</t>
+    <t>69,21%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -154,13 +154,13 @@
     <t>95,69%</t>
   </si>
   <si>
-    <t>82,03%</t>
+    <t>80,49%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>36,65%</t>
+    <t>30,79%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -169,7 +169,7 @@
     <t>4,31%</t>
   </si>
   <si>
-    <t>17,97%</t>
+    <t>19,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -217,28 +217,28 @@
     <t>89,67%</t>
   </si>
   <si>
-    <t>54,65%</t>
+    <t>58,41%</t>
   </si>
   <si>
     <t>94,63%</t>
   </si>
   <si>
-    <t>69,08%</t>
+    <t>75,93%</t>
   </si>
   <si>
     <t>10,33%</t>
   </si>
   <si>
-    <t>45,35%</t>
+    <t>41,59%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido recostituyentes recetados por el médico en 2015 (Tasa respuesta: 0,61%)</t>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes recetados por el médico en 2016 (Tasa respuesta: 0,61%)</t>
   </si>
   <si>
     <t>50,0%</t>
@@ -247,9 +247,15 @@
     <t>80,39%</t>
   </si>
   <si>
+    <t>25,0%</t>
+  </si>
+  <si>
     <t>19,61%</t>
   </si>
   <si>
+    <t>75,0%</t>
+  </si>
+  <si>
     <t>76,75%</t>
   </si>
   <si>
@@ -262,13 +268,10 @@
     <t>80,89%</t>
   </si>
   <si>
-    <t>25,0%</t>
-  </si>
-  <si>
     <t>94,71%</t>
   </si>
   <si>
-    <t>69,45%</t>
+    <t>75,33%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -277,13 +280,10 @@
     <t>19,11%</t>
   </si>
   <si>
-    <t>75,0%</t>
-  </si>
-  <si>
     <t>5,29%</t>
   </si>
   <si>
-    <t>30,55%</t>
+    <t>24,67%</t>
   </si>
 </sst>
 </file>
@@ -695,7 +695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193AE89A-7A8E-4E27-9709-3FDC8A3FB13E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED054A37-DEA2-4586-89D5-931A95467AF5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1446,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4531CC-0445-4E46-B28F-B8D14456E76D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DDB043-2D3E-4FA1-BE30-AC8BB6C0FA28}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2197,7 +2197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E04C34-3924-401A-97F3-7B76CA330C7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCF743C-370D-4E77-9EC3-5A484EC80D51}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2509,7 +2509,7 @@
         <v>68</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -2557,13 +2557,13 @@
         <v>455</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,7 +2664,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2718,7 +2718,7 @@
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2789,7 +2789,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -2801,10 +2801,10 @@
         <v>1925</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
@@ -2816,10 +2816,10 @@
         <v>8135</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -2843,7 +2843,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2852,13 +2852,13 @@
         <v>455</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>

--- a/data/trans_orig/IP16B03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16B03-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69EC9D8E-A631-4616-8DB9-0DDC0FAE8A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{177B23B4-5C80-4930-BCE6-684A0D522215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8A36A589-3060-4824-B87C-DA42BA95B5F8}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{4EE62270-B2B4-4FD0-9F0F-98B09927F8B2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>Menores según si ha consumido recostituyentes recetados por el médico en 2007 (Tasa respuesta: 1,24%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -103,34 +103,34 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>79,25%</t>
+  </si>
+  <si>
     <t>86,47%</t>
   </si>
   <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
+    <t>38,37%</t>
   </si>
   <si>
     <t>92,88%</t>
   </si>
   <si>
-    <t>70,35%</t>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
   </si>
   <si>
     <t>13,53%</t>
   </si>
   <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
+    <t>61,63%</t>
   </si>
   <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>29,65%</t>
+    <t>31,48%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -142,34 +142,34 @@
     <t>26,42%</t>
   </si>
   <si>
+    <t>85,49%</t>
+  </si>
+  <si>
     <t>92,43%</t>
   </si>
   <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
+    <t>67,37%</t>
   </si>
   <si>
     <t>95,69%</t>
   </si>
   <si>
-    <t>80,49%</t>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
+    <t>32,63%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>19,51%</t>
+    <t>22,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -178,21 +178,21 @@
     <t>Menores según si ha consumido recostituyentes recetados por el médico en 2012 (Tasa respuesta: 0,86%)</t>
   </si>
   <si>
+    <t>50,82%</t>
+  </si>
+  <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>50,82%</t>
-  </si>
-  <si>
     <t>65,85%</t>
   </si>
   <si>
+    <t>49,18%</t>
+  </si>
+  <si>
     <t>77,15%</t>
   </si>
   <si>
-    <t>49,18%</t>
-  </si>
-  <si>
     <t>34,15%</t>
   </si>
   <si>
@@ -217,25 +217,25 @@
     <t>89,67%</t>
   </si>
   <si>
-    <t>58,41%</t>
+    <t>49,54%</t>
   </si>
   <si>
     <t>94,63%</t>
   </si>
   <si>
-    <t>75,93%</t>
+    <t>77,07%</t>
   </si>
   <si>
     <t>10,33%</t>
   </si>
   <si>
-    <t>41,59%</t>
+    <t>50,46%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>24,07%</t>
+    <t>22,93%</t>
   </si>
   <si>
     <t>Menores según si ha consumido recostituyentes recetados por el médico en 2016 (Tasa respuesta: 0,61%)</t>
@@ -262,28 +262,28 @@
     <t>23,25%</t>
   </si>
   <si>
+    <t>80,89%</t>
+  </si>
+  <si>
     <t>81,26%</t>
   </si>
   <si>
-    <t>80,89%</t>
-  </si>
-  <si>
     <t>94,71%</t>
   </si>
   <si>
-    <t>75,33%</t>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
   </si>
   <si>
     <t>18,74%</t>
   </si>
   <si>
-    <t>19,11%</t>
-  </si>
-  <si>
     <t>5,29%</t>
   </si>
   <si>
-    <t>24,67%</t>
+    <t>24,26%</t>
   </si>
 </sst>
 </file>
@@ -695,7 +695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED054A37-DEA2-4586-89D5-931A95467AF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638DE183-C40F-4BD5-AE9E-F8E5746C3B45}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -816,7 +816,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>1342</v>
+        <v>1245</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -831,7 +831,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>1245</v>
+        <v>1342</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -918,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>1342</v>
+        <v>1245</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -933,7 +933,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>1245</v>
+        <v>1342</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -968,34 +968,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4831</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>7</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>4645</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7">
-        <v>4831</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -1019,31 +1019,31 @@
         <v>15</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>726</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>28</v>
@@ -1073,7 +1073,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="7">
-        <v>5371</v>
+        <v>4831</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1088,7 +1088,7 @@
         <v>8</v>
       </c>
       <c r="I9" s="7">
-        <v>4831</v>
+        <v>5371</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1123,31 +1123,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1200</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>2885</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1200</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -1186,7 +1186,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1225,25 +1225,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>4</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>2885</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1200</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1278,34 +1278,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
+        <v>7275</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>13</v>
+      </c>
+      <c r="I13" s="7">
         <v>8873</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="7">
-        <v>12</v>
-      </c>
-      <c r="I13" s="7">
-        <v>7275</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -1329,31 +1329,31 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>726</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>41</v>
@@ -1380,25 +1380,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7">
+        <v>7275</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
         <v>14</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>9599</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>12</v>
-      </c>
-      <c r="I15" s="7">
-        <v>7275</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1446,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DDB043-2D3E-4FA1-BE30-AC8BB6C0FA28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BB5ECC-4740-4FDD-A9CF-2188DFF70973}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1567,31 +1567,31 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>607</v>
+        <v>701</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>701</v>
+        <v>607</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -1615,34 +1615,34 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>678</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -1666,25 +1666,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1379</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>607</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1379</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1719,31 +1719,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3740</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>4</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>3499</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>6</v>
-      </c>
-      <c r="I7" s="7">
-        <v>3740</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -1782,7 +1782,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1821,25 +1821,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3740</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>4</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>3499</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>6</v>
-      </c>
-      <c r="I9" s="7">
-        <v>3740</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1874,31 +1874,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1445</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>1963</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1445</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -1937,7 +1937,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1952,7 +1952,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1976,25 +1976,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1445</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>3</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>1963</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1445</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2029,34 +2029,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5886</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7">
         <v>8</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>6070</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>9</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5886</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -2080,34 +2080,34 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>678</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2131,25 +2131,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>10</v>
+      </c>
+      <c r="D15" s="7">
+        <v>6564</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
         <v>8</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>6070</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>10</v>
-      </c>
-      <c r="I15" s="7">
-        <v>6564</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2197,7 +2197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCF743C-370D-4E77-9EC3-5A484EC80D51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55337B33-C035-41F8-9BE2-B0DCA1096E8C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2318,13 +2318,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>891</v>
+        <v>765</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2333,13 +2333,13 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>765</v>
+        <v>891</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2378,7 +2378,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>891</v>
+        <v>765</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>765</v>
+        <v>891</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -2470,34 +2470,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>455</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>1410</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>455</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2521,34 +2521,34 @@
         <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>455</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2575,7 +2575,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>1410</v>
+        <v>910</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -2590,7 +2590,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>910</v>
+        <v>1410</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2625,31 +2625,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>705</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
         <v>6</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>3908</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>705</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2688,7 +2688,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2703,7 +2703,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2727,25 +2727,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>705</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>6</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>3908</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>705</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2780,34 +2780,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1925</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7">
         <v>9</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>6210</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1925</v>
-      </c>
       <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -2831,34 +2831,34 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>455</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -2882,25 +2882,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>4</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2380</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
         <v>9</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>6210</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>4</v>
-      </c>
-      <c r="I15" s="7">
-        <v>2380</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
